--- a/biology/Botanique/Per_Teodor_Cleve/Per_Teodor_Cleve.xlsx
+++ b/biology/Botanique/Per_Teodor_Cleve/Per_Teodor_Cleve.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Per Teodor Cleve (Stockholm 10 février 1840 - Uppsala 18 juin 1905) est un chimiste, géologue-minéralogiste, biologiste et océanographe suédois.
 En tant que chimiste il découvre les éléments chimiques holmium et thulium en 1879.
@@ -514,7 +526,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après des études au Gymnasium de Stockholm, il s'inscrit à l'université d'Uppsala en mai 1858.
 Cleve est le grand-père maternel de Ulf von Euler, physiologiste et pharmacologiste lauréat du Prix Nobel.
@@ -546,7 +560,9 @@
           <t>Carrière scientifique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il reçoit son doctorat en 1863 à Uppsala. Après un travail dans cette université et divers voyages en Europe et en Amérique du Nord; il devient professeur de chimie agricole et générale à Uppsala en 1874.
 Il encadre une partie des études de Svante August Arrhenius, mais ne semble pas avoir compris la valeur de son travail, qui vaudra pourtant à cet étudiant un prix Nobel de chimie (le premier en Suède).
@@ -578,7 +594,9 @@
           <t>Découvertes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cleve découvre les éléments chimiques holmium et thulium en 1879 qu'il sépare d'avec l'erbium. En 1874, il aboutit à la conclusion que le didyme est en fait formé de deux éléments : le néodyme et le praséodyme.
 </t>
@@ -609,7 +627,9 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il reçoit la médaille Davy de la Royal Society en 1894.
 </t>
